--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.2833049508681884</v>
+        <v>-0.3309010421165708</v>
       </c>
       <c r="D2">
-        <v>0.7769780085009916</v>
+        <v>0.7438502100025386</v>
       </c>
       <c r="E2">
         <v>0.6716976213308506</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.7107015324219964</v>
+        <v>0.738802337744134</v>
       </c>
       <c r="D3">
-        <v>0.4773679175634218</v>
+        <v>0.4678365618825044</v>
       </c>
       <c r="E3">
         <v>0.6716976213308506</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>2.860299733064974</v>
+        <v>2.467652683724732</v>
       </c>
       <c r="D4">
-        <v>0.004284758165899571</v>
+        <v>0.02185422460194419</v>
       </c>
       <c r="E4">
         <v>0.6716976213308506</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>2.916601661822578</v>
+        <v>3.840728866733985</v>
       </c>
       <c r="D5">
-        <v>0.003585665118161607</v>
+        <v>0.000888710136857318</v>
       </c>
       <c r="E5">
         <v>0.6716976213308506</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.8604596090356453</v>
+        <v>0.7280352027440316</v>
       </c>
       <c r="D6">
-        <v>0.389658589280407</v>
+        <v>0.4742702704389119</v>
       </c>
       <c r="E6">
         <v>0.6781571220227737</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>3.21234713371906</v>
+        <v>3.002372990719762</v>
       </c>
       <c r="D7">
-        <v>0.001341501203034667</v>
+        <v>0.006558448967928898</v>
       </c>
       <c r="E7">
         <v>0.6781571220227737</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.782277257038643</v>
+        <v>3.191883911006894</v>
       </c>
       <c r="D8">
-        <v>0.005458283582117529</v>
+        <v>0.004211822780769703</v>
       </c>
       <c r="E8">
         <v>0.6781571220227737</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>2.18842928587037</v>
+        <v>1.742158862356944</v>
       </c>
       <c r="D9">
-        <v>0.02877571307943971</v>
+        <v>0.09544562098095866</v>
       </c>
       <c r="E9">
         <v>0.6575270190100553</v>
@@ -635,7 +635,7 @@
         <v>0.6075854004773492</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.47293789749865</v>
+        <v>2.853251771445125</v>
       </c>
       <c r="D10">
-        <v>0.01349911825784456</v>
+        <v>0.00924370360146165</v>
       </c>
       <c r="E10">
         <v>0.6575270190100553</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.147594482127149</v>
+        <v>-0.1504460470507195</v>
       </c>
       <c r="D11">
-        <v>0.8826805313250783</v>
+        <v>0.8817835737091928</v>
       </c>
       <c r="E11">
         <v>0.6075854004773492</v>
